--- a/data/course.xlsx
+++ b/data/course.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E2708-130C-49B9-9EFE-03B86326CF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A15443-13B7-424B-ACF5-A8B6B9BA3596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6048" xr2:uid="{AE0C0653-76A8-45FB-AB10-DFBDE6E4B9B2}"/>
   </bookViews>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dept_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,6 +433,10 @@
   </si>
   <si>
     <t>肿瘤学概论B</t>
+  </si>
+  <si>
+    <t>course_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -818,13 +818,13 @@
         <v>105</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -1266,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>3.5</v>
@@ -1280,10 +1280,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1294,10 +1294,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1308,10 +1308,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>1.5</v>
